--- a/측정 결과.xlsx
+++ b/측정 결과.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
   <si>
     <t>year</t>
   </si>
@@ -61,10 +61,19 @@
     <t>logL_gm</t>
   </si>
   <si>
-    <t>여자</t>
+    <t>rmse</t>
+  </si>
+  <si>
+    <t>mae</t>
+  </si>
+  <si>
+    <t>mape</t>
   </si>
   <si>
     <t>남자</t>
+  </si>
+  <si>
+    <t>여자</t>
   </si>
 </sst>
 </file>
@@ -422,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,1122 +483,1428 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
-        <v>1973</v>
+        <v>2019</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>5.120295335428536E-06</v>
-      </c>
-      <c r="D2">
-        <v>0.1235224041199963</v>
-      </c>
-      <c r="E2">
-        <v>0.1752090093660599</v>
-      </c>
-      <c r="F2">
-        <v>0.005759460795906019</v>
-      </c>
-      <c r="G2">
-        <v>-235495.234278943</v>
-      </c>
-      <c r="H2">
-        <v>95</v>
-      </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
-      <c r="J2">
-        <v>14</v>
-      </c>
-      <c r="K2">
-        <v>76.77226752502388</v>
+        <v>18</v>
       </c>
       <c r="L2">
-        <v>3.969742299887385E-05</v>
+        <v>5.496218374305714E-06</v>
       </c>
       <c r="M2">
-        <v>0.0967051852416124</v>
+        <v>0.1150075538014535</v>
       </c>
       <c r="N2">
-        <v>4.811002500665728E-05</v>
+        <v>5.738507107387563E-05</v>
       </c>
       <c r="O2">
-        <v>-235566.7978089017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>-306171.7313286456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
-        <v>1979</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>2.272015323757744E-05</v>
+        <v>5.103000380851934E-06</v>
       </c>
       <c r="D3">
-        <v>0.1129278457442329</v>
+        <v>0.1175886036911621</v>
       </c>
       <c r="E3">
-        <v>0.1864622291172649</v>
+        <v>0.07152682549784645</v>
       </c>
       <c r="F3">
-        <v>0.01604317868486232</v>
+        <v>1.59734308919947E-05</v>
       </c>
       <c r="G3">
-        <v>-171674.1720976254</v>
+        <v>-303919.0790991176</v>
       </c>
       <c r="H3">
+        <v>93</v>
+      </c>
+      <c r="I3">
+        <v>6.5</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>5.39487761228613E-06</v>
+      </c>
+      <c r="M3">
+        <v>0.1160751047815111</v>
+      </c>
+      <c r="N3">
+        <v>5.536618141503637E-05</v>
+      </c>
+      <c r="O3">
+        <v>-303935.8240583265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4">
+        <v>2017</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>5.122465634617868E-06</v>
+      </c>
+      <c r="D4">
+        <v>0.1177091739177376</v>
+      </c>
+      <c r="E4">
+        <v>0.0701836921832566</v>
+      </c>
+      <c r="F4">
+        <v>1.75186752198291E-05</v>
+      </c>
+      <c r="G4">
+        <v>-303816.6210931752</v>
+      </c>
+      <c r="H4">
         <v>91</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>4</v>
       </c>
-      <c r="K3">
-        <v>75.12864982255755</v>
-      </c>
-      <c r="L3">
-        <v>0.0003666754268486399</v>
-      </c>
-      <c r="M3">
-        <v>0.0756749746866275</v>
-      </c>
-      <c r="N3">
-        <v>1E-06</v>
-      </c>
-      <c r="O3">
-        <v>-171702.7773065522</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4">
-        <v>1979</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>7.616600383945308E-06</v>
-      </c>
-      <c r="D4">
-        <v>0.1178804069288247</v>
-      </c>
-      <c r="E4">
-        <v>0.1647640374792829</v>
-      </c>
-      <c r="F4">
-        <v>0.004344270656456407</v>
-      </c>
-      <c r="G4">
-        <v>-252833.1879456068</v>
-      </c>
-      <c r="H4">
-        <v>92</v>
-      </c>
-      <c r="I4">
-        <v>2.5</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>75.87441907710078</v>
-      </c>
       <c r="L4">
-        <v>4.480681645384582E-05</v>
+        <v>6.364154186722841E-06</v>
       </c>
       <c r="M4">
-        <v>0.09443297749923142</v>
+        <v>0.1140584025112781</v>
       </c>
       <c r="N4">
-        <v>4.690232045385536E-05</v>
+        <v>5.674168227966994E-05</v>
       </c>
       <c r="O4">
-        <v>-252899.0092832827</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>-303871.9940139274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
-        <v>1990</v>
+        <v>2016</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>7.008020952509718E-06</v>
+        <v>5.104194441999999E-06</v>
       </c>
       <c r="D5">
-        <v>0.1178218684482674</v>
+        <v>0.118086883032977</v>
       </c>
       <c r="E5">
-        <v>0.1649360655476288</v>
+        <v>0.09255620684794701</v>
       </c>
       <c r="F5">
-        <v>0.0001398811698938886</v>
+        <v>1.5965163748E-05</v>
       </c>
       <c r="G5">
-        <v>-289513.3503736929</v>
+        <v>-302708.2352948928</v>
       </c>
       <c r="H5">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I5">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="J5">
-        <v>4</v>
-      </c>
-      <c r="K5">
-        <v>61.70431773422243</v>
+        <v>13</v>
       </c>
       <c r="L5">
-        <v>2.403961173619974E-05</v>
+        <v>8.796912761777006E-06</v>
       </c>
       <c r="M5">
-        <v>0.100429873152296</v>
+        <v>0.1103612228790026</v>
       </c>
       <c r="N5">
-        <v>4.986331839343625E-05</v>
+        <v>5.472185123472808E-05</v>
       </c>
       <c r="O5">
-        <v>-289651.1016844942</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>-302813.380448699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
-        <v>1999</v>
+        <v>2015</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6">
-        <v>3.95888723125534E-05</v>
+        <v>5.401115403674611E-06</v>
       </c>
       <c r="D6">
-        <v>0.09971359389147623</v>
+        <v>0.1178129321773698</v>
       </c>
       <c r="E6">
-        <v>0.09902982665300598</v>
+        <v>0.09818030487013887</v>
       </c>
       <c r="F6">
-        <v>7.067126783635858E-05</v>
+        <v>2.894685398368776E-05</v>
       </c>
       <c r="G6">
-        <v>-253197.9276212314</v>
+        <v>-301126.2296973713</v>
       </c>
       <c r="H6">
         <v>91</v>
       </c>
       <c r="I6">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="K6">
-        <v>53.81363781515803</v>
+        <v>59.39517730810756</v>
       </c>
       <c r="L6">
-        <v>8.463596758454653E-05</v>
+        <v>1.00413845804954E-05</v>
       </c>
       <c r="M6">
-        <v>0.08849082416062011</v>
+        <v>0.1091018360392715</v>
       </c>
       <c r="N6">
-        <v>4.377129296688217E-05</v>
+        <v>5.428334738582519E-05</v>
       </c>
       <c r="O6">
-        <v>-253243.0165890096</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>-301229.190325206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
-        <v>2000</v>
+        <v>2014</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7">
-        <v>3.31728821447978E-05</v>
+        <v>5.183199943647814E-06</v>
       </c>
       <c r="D7">
-        <v>0.101639519980862</v>
+        <v>0.1188714914583274</v>
       </c>
       <c r="E7">
-        <v>0.1021566248126435</v>
+        <v>0.1118842911362234</v>
       </c>
       <c r="F7">
-        <v>4.07040112655535E-05</v>
+        <v>0.0003509490760988873</v>
       </c>
       <c r="G7">
-        <v>-257978.9708626223</v>
+        <v>-299003.4737048764</v>
       </c>
       <c r="H7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I7">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="J7">
         <v>19</v>
       </c>
       <c r="K7">
-        <v>51.75049315265952</v>
+        <v>69.25561586123327</v>
       </c>
       <c r="L7">
-        <v>7.266963173854489E-05</v>
+        <v>1.042230470511729E-05</v>
       </c>
       <c r="M7">
-        <v>0.09011685100687</v>
+        <v>0.1089982818860229</v>
       </c>
       <c r="N7">
-        <v>4.474406284498513E-05</v>
+        <v>5.000418204965344E-05</v>
       </c>
       <c r="O7">
-        <v>-258024.9229825129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>-299110.6710961031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>5.116918946508728E-06</v>
+        <v>5.169692293417489E-06</v>
       </c>
       <c r="D8">
-        <v>0.1181961206337263</v>
+        <v>0.1195322001692696</v>
       </c>
       <c r="E8">
-        <v>0.07451705540983249</v>
+        <v>0.1223315288988443</v>
       </c>
       <c r="F8">
-        <v>2.595746046163763E-05</v>
+        <v>4.857667586759262E-05</v>
       </c>
       <c r="G8">
-        <v>-311711.9445455807</v>
+        <v>-296824.8393119976</v>
       </c>
       <c r="H8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I8">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
       <c r="J8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>60.22252987785141</v>
+      </c>
+      <c r="L8">
+        <v>1.226935540390126E-05</v>
+      </c>
+      <c r="M8">
+        <v>0.1074331313777304</v>
+      </c>
+      <c r="N8">
+        <v>5.353154522710703E-05</v>
+      </c>
+      <c r="O8">
+        <v>-296937.1888210972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
-        <v>2001</v>
+        <v>2012</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9">
-        <v>2.517674012013246E-05</v>
+        <v>5.150697796837229E-06</v>
       </c>
       <c r="D9">
-        <v>0.1046345809559471</v>
+        <v>0.120558745163511</v>
       </c>
       <c r="E9">
-        <v>0.1049280938976282</v>
+        <v>0.1319928689410184</v>
       </c>
       <c r="F9">
-        <v>0.0008075075782578954</v>
+        <v>8.150482449745949E-05</v>
       </c>
       <c r="G9">
-        <v>-262512.1726523354</v>
+        <v>-294058.5176452107</v>
       </c>
       <c r="H9">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I9">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>9</v>
       </c>
       <c r="K9">
-        <v>67.30936593922004</v>
+        <v>61.61715621523862</v>
       </c>
       <c r="L9">
-        <v>6.220060058577264E-05</v>
+        <v>1.346993264285558E-05</v>
       </c>
       <c r="M9">
-        <v>0.09178400080952118</v>
+        <v>0.1070420163431406</v>
       </c>
       <c r="N9">
-        <v>4.562153030716687E-05</v>
+        <v>5.325683394376815E-05</v>
       </c>
       <c r="O9">
-        <v>-262559.2480401649</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>-294167.7057260996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
-        <v>2002</v>
+        <v>2011</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>1.536197612093666E-05</v>
+        <v>5.30940970038191E-06</v>
       </c>
       <c r="D10">
-        <v>0.1105405060069439</v>
+        <v>0.120060277830105</v>
       </c>
       <c r="E10">
-        <v>0.1222607779796246</v>
+        <v>0.1157766407250445</v>
       </c>
       <c r="F10">
-        <v>0.002053496634571141</v>
+        <v>0.000635351021654507</v>
       </c>
       <c r="G10">
-        <v>-265883.1109814458</v>
+        <v>-292010.6496671494</v>
       </c>
       <c r="H10">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J10">
-        <v>14</v>
-      </c>
-      <c r="K10">
-        <v>72.06491386007087</v>
+        <v>6</v>
       </c>
       <c r="L10">
-        <v>4.92950381214641E-05</v>
+        <v>1.359548890753555E-05</v>
       </c>
       <c r="M10">
-        <v>0.09449349060242111</v>
+        <v>0.1071177201568881</v>
       </c>
       <c r="N10">
-        <v>4.69680676226996E-05</v>
+        <v>5.32938798526777E-05</v>
       </c>
       <c r="O10">
-        <v>-265931.2927157023</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>-292082.5678535508</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>1.751524585283493E-05</v>
+        <v>7.390218955403635E-06</v>
       </c>
       <c r="D11">
-        <v>0.1080634152496853</v>
+        <v>0.1165975265952982</v>
       </c>
       <c r="E11">
-        <v>0.1045864894671084</v>
+        <v>0.1327648039590446</v>
       </c>
       <c r="F11">
-        <v>0.001855512833290988</v>
+        <v>0.0001729471558708645</v>
       </c>
       <c r="G11">
-        <v>-269678.9934950219</v>
+        <v>-290217.6540125718</v>
       </c>
       <c r="H11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I11">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="J11">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>72.62374009084763</v>
+        <v>63.69291659875208</v>
       </c>
       <c r="L11">
-        <v>4.725902647962732E-05</v>
+        <v>1.993242445351399E-05</v>
       </c>
       <c r="M11">
-        <v>0.09444236601486636</v>
+        <v>0.1026138655243944</v>
       </c>
       <c r="N11">
-        <v>4.697510875960143E-05</v>
+        <v>5.110501736151278E-05</v>
       </c>
       <c r="O11">
-        <v>-269716.5778321281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>-290315.4473324648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12">
-        <v>1.568614589000027E-05</v>
+        <v>6.495022740228996E-06</v>
       </c>
       <c r="D12">
-        <v>0.1092734253373342</v>
+        <v>0.118181774968342</v>
       </c>
       <c r="E12">
-        <v>0.119851461726826</v>
+        <v>0.1466081748672275</v>
       </c>
       <c r="F12">
-        <v>0.001842477158701863</v>
+        <v>0.001365154002834441</v>
       </c>
       <c r="G12">
-        <v>-273526.929003194</v>
+        <v>-289469.5573279877</v>
       </c>
       <c r="H12">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I12">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="J12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K12">
-        <v>72.23643652895545</v>
+        <v>72.44012229616729</v>
       </c>
       <c r="L12">
-        <v>4.764353687972333E-05</v>
+        <v>2.284509917510738E-05</v>
       </c>
       <c r="M12">
-        <v>0.09399670778678385</v>
+        <v>0.1009903935545123</v>
       </c>
       <c r="N12">
-        <v>4.669945360689021E-05</v>
+        <v>5.020899868673943E-05</v>
       </c>
       <c r="O12">
-        <v>-273570.7627646616</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>-289551.5325770511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>1.150092163720713E-05</v>
+        <v>6.954111651613886E-06</v>
       </c>
       <c r="D13">
-        <v>0.1124980817291786</v>
+        <v>0.1178218162949193</v>
       </c>
       <c r="E13">
-        <v>0.1163749022560707</v>
+        <v>0.1367202210374737</v>
       </c>
       <c r="F13">
-        <v>0.002702699599798353</v>
+        <v>0.0019690399607738</v>
       </c>
       <c r="G13">
-        <v>-278058.1549576691</v>
+        <v>-287347.7502717393</v>
       </c>
       <c r="H13">
         <v>94</v>
       </c>
       <c r="I13">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="J13">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K13">
-        <v>74.93315880006607</v>
+        <v>73.95502001174482</v>
       </c>
       <c r="L13">
-        <v>3.869254572311173E-05</v>
+        <v>2.473537269882217E-05</v>
       </c>
       <c r="M13">
-        <v>0.0962653578210322</v>
+        <v>0.1007259457193298</v>
       </c>
       <c r="N13">
-        <v>4.786548770594509E-05</v>
+        <v>5.012364754933079E-05</v>
       </c>
       <c r="O13">
-        <v>-278099.2921620376</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>-287419.0953865966</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
+        <v>2007</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>9.316827779113799E-06</v>
+      </c>
+      <c r="D14">
+        <v>0.1147885641783888</v>
+      </c>
+      <c r="E14">
+        <v>0.1299848605126606</v>
+      </c>
+      <c r="F14">
+        <v>0.001068991366037809</v>
+      </c>
+      <c r="G14">
+        <v>-285173.0153104335</v>
+      </c>
+      <c r="H14">
+        <v>90</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>17</v>
+      </c>
+      <c r="K14">
+        <v>70.73880918105478</v>
+      </c>
+      <c r="L14">
+        <v>2.884408722711809E-05</v>
+      </c>
+      <c r="M14">
+        <v>0.09919096755582024</v>
+      </c>
+      <c r="N14">
+        <v>4.92250126619186E-05</v>
+      </c>
+      <c r="O14">
+        <v>-285243.4062246192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
         <v>2006</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>9.741873263971376E-06</v>
+      </c>
+      <c r="D15">
+        <v>0.1143724615882984</v>
+      </c>
+      <c r="E15">
+        <v>0.1232205639032056</v>
+      </c>
+      <c r="F15">
+        <v>0.002083261215753949</v>
+      </c>
+      <c r="G15">
+        <v>-282219.0460544718</v>
+      </c>
+      <c r="H15">
+        <v>88</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
         <v>16</v>
       </c>
-      <c r="C14">
-        <v>9.741873263971376E-06</v>
-      </c>
-      <c r="D14">
-        <v>0.1143724615882984</v>
-      </c>
-      <c r="E14">
-        <v>0.1232205639032056</v>
-      </c>
-      <c r="F14">
-        <v>0.002083261215753949</v>
-      </c>
-      <c r="G14">
-        <v>-282219.0460544718</v>
-      </c>
-      <c r="H14">
-        <v>88</v>
-      </c>
-      <c r="I14">
-        <v>4</v>
-      </c>
-      <c r="J14">
-        <v>16</v>
-      </c>
-      <c r="K14">
+      <c r="K15">
         <v>73.80873170378307</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>3.257595273050469E-05</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <v>0.09808410055649404</v>
       </c>
-      <c r="N14">
+      <c r="N15">
         <v>4.834644047527986E-05</v>
       </c>
-      <c r="O14">
+      <c r="O15">
         <v>-282276.0549799732</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15">
-        <v>2007</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15">
-        <v>9.316827779113799E-06</v>
-      </c>
-      <c r="D15">
-        <v>0.1147885641783888</v>
-      </c>
-      <c r="E15">
-        <v>0.1299848605126606</v>
-      </c>
-      <c r="F15">
-        <v>0.001068991366037809</v>
-      </c>
-      <c r="G15">
-        <v>-285173.0153104335</v>
-      </c>
-      <c r="H15">
-        <v>90</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="J15">
-        <v>17</v>
-      </c>
-      <c r="K15">
-        <v>70.73880918105478</v>
-      </c>
-      <c r="L15">
-        <v>2.884408722711809E-05</v>
-      </c>
-      <c r="M15">
-        <v>0.09919096755582024</v>
-      </c>
-      <c r="N15">
-        <v>4.92250126619186E-05</v>
-      </c>
-      <c r="O15">
-        <v>-285243.4062246192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:18">
       <c r="A16">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>6.954111651613886E-06</v>
+        <v>1.150092163720713E-05</v>
       </c>
       <c r="D16">
-        <v>0.1178218162949193</v>
+        <v>0.1124980817291786</v>
       </c>
       <c r="E16">
-        <v>0.1367202210374737</v>
+        <v>0.1163749022560707</v>
       </c>
       <c r="F16">
-        <v>0.0019690399607738</v>
+        <v>0.002702699599798353</v>
       </c>
       <c r="G16">
-        <v>-287347.7502717393</v>
+        <v>-278058.1549576691</v>
       </c>
       <c r="H16">
         <v>94</v>
       </c>
       <c r="I16">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="J16">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <v>74.93315880006607</v>
+      </c>
+      <c r="L16">
+        <v>3.869254572311173E-05</v>
+      </c>
+      <c r="M16">
+        <v>0.0962653578210322</v>
+      </c>
+      <c r="N16">
+        <v>4.786548770594509E-05</v>
+      </c>
+      <c r="O16">
+        <v>-278099.2921620376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>2004</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>1.568614589000027E-05</v>
+      </c>
+      <c r="D17">
+        <v>0.1092734253373342</v>
+      </c>
+      <c r="E17">
+        <v>0.119851461726826</v>
+      </c>
+      <c r="F17">
+        <v>0.001842477158701863</v>
+      </c>
+      <c r="G17">
+        <v>-273526.929003194</v>
+      </c>
+      <c r="H17">
+        <v>85</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>15</v>
+      </c>
+      <c r="K17">
+        <v>72.23643652895545</v>
+      </c>
+      <c r="L17">
+        <v>4.764353687972333E-05</v>
+      </c>
+      <c r="M17">
+        <v>0.09399670778678385</v>
+      </c>
+      <c r="N17">
+        <v>4.669945360689021E-05</v>
+      </c>
+      <c r="O17">
+        <v>-273570.7627646616</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>2003</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>1.751524585283493E-05</v>
+      </c>
+      <c r="D18">
+        <v>0.1080634152496853</v>
+      </c>
+      <c r="E18">
+        <v>0.1045864894671084</v>
+      </c>
+      <c r="F18">
+        <v>0.001855512833290988</v>
+      </c>
+      <c r="G18">
+        <v>-269678.9934950219</v>
+      </c>
+      <c r="H18">
+        <v>92</v>
+      </c>
+      <c r="I18">
+        <v>7.5</v>
+      </c>
+      <c r="J18">
+        <v>14</v>
+      </c>
+      <c r="K18">
+        <v>72.62374009084763</v>
+      </c>
+      <c r="L18">
+        <v>4.725902647962732E-05</v>
+      </c>
+      <c r="M18">
+        <v>0.09444236601486636</v>
+      </c>
+      <c r="N18">
+        <v>4.697510875960143E-05</v>
+      </c>
+      <c r="O18">
+        <v>-269716.5778321281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>2002</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>1.536197612093666E-05</v>
+      </c>
+      <c r="D19">
+        <v>0.1105405060069439</v>
+      </c>
+      <c r="E19">
+        <v>0.1222607779796246</v>
+      </c>
+      <c r="F19">
+        <v>0.002053496634571141</v>
+      </c>
+      <c r="G19">
+        <v>-265883.1109814458</v>
+      </c>
+      <c r="H19">
+        <v>90</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>14</v>
+      </c>
+      <c r="K19">
+        <v>72.06491386007087</v>
+      </c>
+      <c r="L19">
+        <v>4.92950381214641E-05</v>
+      </c>
+      <c r="M19">
+        <v>0.09449349060242111</v>
+      </c>
+      <c r="N19">
+        <v>4.69680676226996E-05</v>
+      </c>
+      <c r="O19">
+        <v>-265931.2927157023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>2001</v>
+      </c>
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="K16">
-        <v>73.95502001174482</v>
-      </c>
-      <c r="L16">
-        <v>2.473537269882217E-05</v>
-      </c>
-      <c r="M16">
-        <v>0.1007259457193298</v>
-      </c>
-      <c r="N16">
-        <v>5.012364754933079E-05</v>
-      </c>
-      <c r="O16">
-        <v>-287419.0953865966</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17">
-        <v>2009</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>6.495022740228996E-06</v>
-      </c>
-      <c r="D17">
-        <v>0.118181774968342</v>
-      </c>
-      <c r="E17">
-        <v>0.1466081748672275</v>
-      </c>
-      <c r="F17">
-        <v>0.001365154002834441</v>
-      </c>
-      <c r="G17">
-        <v>-289469.5573279877</v>
-      </c>
-      <c r="H17">
+      <c r="C20">
+        <v>5.116918946508728E-06</v>
+      </c>
+      <c r="D20">
+        <v>0.1181961206337263</v>
+      </c>
+      <c r="E20">
+        <v>0.07451705540983249</v>
+      </c>
+      <c r="F20">
+        <v>2.595746046163763E-05</v>
+      </c>
+      <c r="G20">
+        <v>-311711.9445455807</v>
+      </c>
+      <c r="H20">
         <v>93</v>
       </c>
-      <c r="I17">
-        <v>4.5</v>
-      </c>
-      <c r="J17">
-        <v>18</v>
-      </c>
-      <c r="K17">
-        <v>72.44012229616729</v>
-      </c>
-      <c r="L17">
-        <v>2.284509917510738E-05</v>
-      </c>
-      <c r="M17">
-        <v>0.1009903935545123</v>
-      </c>
-      <c r="N17">
-        <v>5.020899868673943E-05</v>
-      </c>
-      <c r="O17">
-        <v>-289551.5325770511</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18">
-        <v>2010</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <v>7.390218955403635E-06</v>
-      </c>
-      <c r="D18">
-        <v>0.1165975265952982</v>
-      </c>
-      <c r="E18">
-        <v>0.1327648039590446</v>
-      </c>
-      <c r="F18">
-        <v>0.0001729471558708645</v>
-      </c>
-      <c r="G18">
-        <v>-290217.6540125718</v>
-      </c>
-      <c r="H18">
-        <v>94</v>
-      </c>
-      <c r="I18">
-        <v>9.5</v>
-      </c>
-      <c r="J18">
-        <v>10</v>
-      </c>
-      <c r="K18">
-        <v>63.69291659875208</v>
-      </c>
-      <c r="L18">
-        <v>1.993242445351399E-05</v>
-      </c>
-      <c r="M18">
-        <v>0.1026138655243944</v>
-      </c>
-      <c r="N18">
-        <v>5.110501736151278E-05</v>
-      </c>
-      <c r="O18">
-        <v>-290315.4473324648</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19">
-        <v>2011</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19">
-        <v>5.30940970038191E-06</v>
-      </c>
-      <c r="D19">
-        <v>0.120060277830105</v>
-      </c>
-      <c r="E19">
-        <v>0.1157766407250445</v>
-      </c>
-      <c r="F19">
-        <v>0.000635351021654507</v>
-      </c>
-      <c r="G19">
-        <v>-292010.6496671494</v>
-      </c>
-      <c r="H19">
+      <c r="I20">
+        <v>8.5</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>2001</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>2.517674012013246E-05</v>
+      </c>
+      <c r="D21">
+        <v>0.1046345809559471</v>
+      </c>
+      <c r="E21">
+        <v>0.1049280938976282</v>
+      </c>
+      <c r="F21">
+        <v>0.0008075075782578954</v>
+      </c>
+      <c r="G21">
+        <v>-262512.1726523354</v>
+      </c>
+      <c r="H21">
         <v>91</v>
       </c>
-      <c r="I19">
-        <v>4</v>
-      </c>
-      <c r="J19">
-        <v>6</v>
-      </c>
-      <c r="L19">
-        <v>1.359548890753555E-05</v>
-      </c>
-      <c r="M19">
-        <v>0.1071177201568881</v>
-      </c>
-      <c r="N19">
-        <v>5.32938798526777E-05</v>
-      </c>
-      <c r="O19">
-        <v>-292082.5678535508</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20">
-        <v>2012</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20">
-        <v>5.150697796837229E-06</v>
-      </c>
-      <c r="D20">
-        <v>0.120558745163511</v>
-      </c>
-      <c r="E20">
-        <v>0.1319928689410184</v>
-      </c>
-      <c r="F20">
-        <v>8.150482449745949E-05</v>
-      </c>
-      <c r="G20">
-        <v>-294058.5176452107</v>
-      </c>
-      <c r="H20">
-        <v>94</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
+      <c r="I21">
+        <v>3.5</v>
+      </c>
+      <c r="J21">
         <v>9</v>
       </c>
-      <c r="K20">
-        <v>61.61715621523862</v>
-      </c>
-      <c r="L20">
-        <v>1.346993264285558E-05</v>
-      </c>
-      <c r="M20">
-        <v>0.1070420163431406</v>
-      </c>
-      <c r="N20">
-        <v>5.325683394376815E-05</v>
-      </c>
-      <c r="O20">
-        <v>-294167.7057260996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21">
-        <v>2013</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21">
-        <v>5.169692293417489E-06</v>
-      </c>
-      <c r="D21">
-        <v>0.1195322001692696</v>
-      </c>
-      <c r="E21">
-        <v>0.1223315288988443</v>
-      </c>
-      <c r="F21">
-        <v>4.857667586759262E-05</v>
-      </c>
-      <c r="G21">
-        <v>-296824.8393119976</v>
-      </c>
-      <c r="H21">
-        <v>92</v>
-      </c>
-      <c r="I21">
-        <v>2.5</v>
-      </c>
-      <c r="J21">
-        <v>7</v>
-      </c>
       <c r="K21">
-        <v>60.22252987785141</v>
+        <v>67.30936593922004</v>
       </c>
       <c r="L21">
-        <v>1.226935540390126E-05</v>
+        <v>6.220060058577264E-05</v>
       </c>
       <c r="M21">
-        <v>0.1074331313777304</v>
+        <v>0.09178400080952118</v>
       </c>
       <c r="N21">
-        <v>5.353154522710703E-05</v>
+        <v>4.562153030716687E-05</v>
       </c>
       <c r="O21">
-        <v>-296937.1888210972</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>-262559.2480401649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22">
-        <v>5.416987927538608E-06</v>
+        <v>3.31728821447978E-05</v>
       </c>
       <c r="D22">
-        <v>0.1178911152427146</v>
+        <v>0.101639519980862</v>
       </c>
       <c r="E22">
-        <v>0.1059514233496837</v>
+        <v>0.1021566248126435</v>
       </c>
       <c r="F22">
-        <v>8.57627324488755E-05</v>
+        <v>4.07040112655535E-05</v>
       </c>
       <c r="G22">
-        <v>-301128.3737981756</v>
+        <v>-257978.9708626223</v>
       </c>
       <c r="H22">
         <v>91</v>
       </c>
       <c r="I22">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="J22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="K22">
+        <v>51.75049315265952</v>
+      </c>
+      <c r="L22">
+        <v>7.266963173854489E-05</v>
+      </c>
+      <c r="M22">
+        <v>0.09011685100687</v>
+      </c>
+      <c r="N22">
+        <v>4.474406284498513E-05</v>
+      </c>
+      <c r="O22">
+        <v>-258024.9229825129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
-        <v>2016</v>
+        <v>1999</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23">
-        <v>5.104194441999999E-06</v>
+        <v>3.95888723125534E-05</v>
       </c>
       <c r="D23">
-        <v>0.118086883032977</v>
+        <v>0.09971359389147623</v>
       </c>
       <c r="E23">
-        <v>0.09255620684794701</v>
+        <v>0.09902982665300598</v>
       </c>
       <c r="F23">
-        <v>1.5965163748E-05</v>
+        <v>7.067126783635858E-05</v>
       </c>
       <c r="G23">
-        <v>-302708.2352948928</v>
+        <v>-253197.9276212314</v>
       </c>
       <c r="H23">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I23">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J23">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>7</v>
+      </c>
+      <c r="K23">
+        <v>53.81363781515803</v>
+      </c>
+      <c r="L23">
+        <v>8.463596758454653E-05</v>
+      </c>
+      <c r="M23">
+        <v>0.08849082416062011</v>
+      </c>
+      <c r="N23">
+        <v>4.377129296688217E-05</v>
+      </c>
+      <c r="O23">
+        <v>-253243.0165890096</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
-        <v>2017</v>
+        <v>1990</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C24">
-        <v>5.122465634617868E-06</v>
+        <v>7.008020952509718E-06</v>
       </c>
       <c r="D24">
-        <v>0.1177091739177376</v>
+        <v>0.1178218684482674</v>
       </c>
       <c r="E24">
-        <v>0.0701836921832566</v>
+        <v>0.1649360655476288</v>
       </c>
       <c r="F24">
-        <v>1.75186752198291E-05</v>
+        <v>0.0001398811698938886</v>
       </c>
       <c r="G24">
-        <v>-303816.6210931752</v>
+        <v>-289513.3503736929</v>
       </c>
       <c r="H24">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="J24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="K24">
+        <v>61.70431773422243</v>
+      </c>
+      <c r="L24">
+        <v>2.403961173619974E-05</v>
+      </c>
+      <c r="M24">
+        <v>0.100429873152296</v>
+      </c>
+      <c r="N24">
+        <v>4.986331839343625E-05</v>
+      </c>
+      <c r="O24">
+        <v>-289651.1016844942</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
-        <v>2018</v>
+        <v>1979</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C25">
-        <v>5.103000380851934E-06</v>
+        <v>2.272015323757744E-05</v>
       </c>
       <c r="D25">
-        <v>0.1175886036911621</v>
+        <v>0.1129278457442329</v>
       </c>
       <c r="E25">
-        <v>0.07152682549784645</v>
+        <v>0.1864622291172649</v>
       </c>
       <c r="F25">
-        <v>1.59734308919947E-05</v>
+        <v>0.01604317868486232</v>
       </c>
       <c r="G25">
-        <v>-303919.0790991176</v>
+        <v>-171674.1720976254</v>
       </c>
       <c r="H25">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>75.12864982255755</v>
+      </c>
+      <c r="L25">
+        <v>0.0003666754268486399</v>
+      </c>
+      <c r="M25">
+        <v>0.0756749746866275</v>
+      </c>
+      <c r="N25">
+        <v>1E-06</v>
+      </c>
+      <c r="O25">
+        <v>-171702.7773065522</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>1979</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>7.616600383945308E-06</v>
+      </c>
+      <c r="D26">
+        <v>0.1178804069288247</v>
+      </c>
+      <c r="E26">
+        <v>0.1647640374792829</v>
+      </c>
+      <c r="F26">
+        <v>0.004344270656456407</v>
+      </c>
+      <c r="G26">
+        <v>-252833.1879456068</v>
+      </c>
+      <c r="H26">
+        <v>92</v>
+      </c>
+      <c r="I26">
+        <v>2.5</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>75.87441907710078</v>
+      </c>
+      <c r="L26">
+        <v>4.480681645384582E-05</v>
+      </c>
+      <c r="M26">
+        <v>0.09443297749923142</v>
+      </c>
+      <c r="N26">
+        <v>4.690232045385536E-05</v>
+      </c>
+      <c r="O26">
+        <v>-252899.0092832827</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27">
+        <v>1973</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>5.120295335428536E-06</v>
+      </c>
+      <c r="D27">
+        <v>0.1235224041199963</v>
+      </c>
+      <c r="E27">
+        <v>0.1752090093660599</v>
+      </c>
+      <c r="F27">
+        <v>0.005759460795906019</v>
+      </c>
+      <c r="G27">
+        <v>-235495.234278943</v>
+      </c>
+      <c r="H27">
+        <v>95</v>
+      </c>
+      <c r="I27">
+        <v>7</v>
+      </c>
+      <c r="J27">
+        <v>14</v>
+      </c>
+      <c r="K27">
+        <v>76.77226752502388</v>
+      </c>
+      <c r="L27">
+        <v>3.969742299887385E-05</v>
+      </c>
+      <c r="M27">
+        <v>0.0967051852416124</v>
+      </c>
+      <c r="N27">
+        <v>4.811002500665728E-05</v>
+      </c>
+      <c r="O27">
+        <v>-235566.7978089017</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
+        <v>2002</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>5.168229068155939E-06</v>
+      </c>
+      <c r="D28">
+        <v>0.1179000889312719</v>
+      </c>
+      <c r="E28">
+        <v>0.0732472021137974</v>
+      </c>
+      <c r="F28">
+        <v>0.0001677771805558177</v>
+      </c>
+      <c r="G28">
+        <v>-312599.9359864835</v>
+      </c>
+      <c r="H28">
+        <v>91</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>8</v>
+      </c>
+      <c r="K28">
+        <v>68.44661383002976</v>
+      </c>
+      <c r="L28">
+        <v>5.155497803426774E-06</v>
+      </c>
+      <c r="M28">
+        <v>0.1169401458072213</v>
+      </c>
+      <c r="N28">
+        <v>5.830493565847032E-05</v>
+      </c>
+      <c r="O28">
+        <v>-312651.0711201844</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29">
+        <v>2003</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>5.400561578175966E-06</v>
+      </c>
+      <c r="D29">
+        <v>0.1168194331571421</v>
+      </c>
+      <c r="E29">
+        <v>0.07146838285431745</v>
+      </c>
+      <c r="F29">
+        <v>0.000147542895565362</v>
+      </c>
+      <c r="G29">
+        <v>-314730.1929215774</v>
+      </c>
+      <c r="H29">
+        <v>91</v>
+      </c>
+      <c r="I29">
+        <v>3.5</v>
+      </c>
+      <c r="J29">
+        <v>20</v>
+      </c>
+      <c r="K29">
+        <v>68.21586690710859</v>
+      </c>
+      <c r="L29">
+        <v>5.294166413158246E-06</v>
+      </c>
+      <c r="M29">
+        <v>0.1159363752402072</v>
+      </c>
+      <c r="N29">
+        <v>5.699776665411685E-05</v>
+      </c>
+      <c r="O29">
+        <v>-314764.7007500489</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30">
+        <v>2004</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30">
+        <v>4.035261298586395E-06</v>
+      </c>
+      <c r="M30">
+        <v>0.1188228633704956</v>
+      </c>
+      <c r="N30">
+        <v>5.902065078724475E-05</v>
+      </c>
+      <c r="O30">
+        <v>-315894.5147274402</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31">
+        <v>2005</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31">
+        <v>3.647226776241538E-06</v>
+      </c>
+      <c r="M31">
+        <v>0.1194910119094756</v>
+      </c>
+      <c r="N31">
+        <v>5.951490616648354E-05</v>
+      </c>
+      <c r="O31">
+        <v>-316719.8815243723</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32">
+        <v>1980</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>5.090935119369836E-05</v>
+      </c>
+      <c r="D32">
+        <v>0.1035811313731091</v>
+      </c>
+      <c r="E32">
+        <v>0.1582798616237118</v>
+      </c>
+      <c r="F32">
+        <v>0.007626057132957633</v>
+      </c>
+      <c r="G32">
+        <v>-174938.6485729052</v>
+      </c>
+      <c r="H32">
+        <v>91</v>
+      </c>
+      <c r="I32">
         <v>6.5</v>
       </c>
-      <c r="J25">
+      <c r="J32">
+        <v>11</v>
+      </c>
+      <c r="K32">
+        <v>70.50262393091188</v>
+      </c>
+      <c r="L32">
+        <v>0.0003414143433165707</v>
+      </c>
+      <c r="M32">
+        <v>0.07652781451969408</v>
+      </c>
+      <c r="N32">
+        <v>1E-06</v>
+      </c>
+      <c r="O32">
+        <v>-174973.5924149074</v>
+      </c>
+      <c r="P32">
+        <v>0.015537</v>
+      </c>
+      <c r="Q32">
+        <v>0.007907000000000001</v>
+      </c>
+      <c r="R32">
+        <v>2.554782</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33">
+        <v>1981</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33">
+        <v>0.0001262573780526473</v>
+      </c>
+      <c r="D33">
+        <v>0.0919183220489542</v>
+      </c>
+      <c r="E33">
+        <v>0.1297848823830972</v>
+      </c>
+      <c r="F33">
+        <v>0.0001503350618967496</v>
+      </c>
+      <c r="G33">
+        <v>-178858.3434798058</v>
+      </c>
+      <c r="H33">
+        <v>91</v>
+      </c>
+      <c r="I33">
+        <v>5.5</v>
+      </c>
+      <c r="J33">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26">
-        <v>2014</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26">
-        <v>5.183199943647814E-06</v>
-      </c>
-      <c r="D26">
-        <v>0.1188714914583274</v>
-      </c>
-      <c r="E26">
-        <v>0.1118842911362234</v>
-      </c>
-      <c r="F26">
-        <v>0.0003509490760988873</v>
-      </c>
-      <c r="G26">
-        <v>-299003.4737048764</v>
-      </c>
-      <c r="H26">
-        <v>90</v>
-      </c>
-      <c r="I26">
-        <v>9</v>
-      </c>
-      <c r="J26">
-        <v>19</v>
-      </c>
-      <c r="K26">
-        <v>69.25561586123327</v>
-      </c>
-      <c r="L26">
-        <v>1.042230470511729E-05</v>
-      </c>
-      <c r="M26">
-        <v>0.1089982818860229</v>
-      </c>
-      <c r="N26">
-        <v>5.000418204965344E-05</v>
-      </c>
-      <c r="O26">
-        <v>-299110.6710961031</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27">
-        <v>2019</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="L27">
-        <v>5.495002468700461E-06</v>
-      </c>
-      <c r="M27">
-        <v>0.1150102071268353</v>
-      </c>
-      <c r="N27">
-        <v>5.738644335561043E-05</v>
-      </c>
-      <c r="O27">
-        <v>-306171.7331938093</v>
+      <c r="K33">
+        <v>47.986697879478</v>
+      </c>
+      <c r="L33">
+        <v>0.0003913535427185425</v>
+      </c>
+      <c r="M33">
+        <v>0.07435653302552059</v>
+      </c>
+      <c r="N33">
+        <v>1E-06</v>
+      </c>
+      <c r="O33">
+        <v>-178902.123128693</v>
+      </c>
+      <c r="P33">
+        <v>0.015428</v>
+      </c>
+      <c r="Q33">
+        <v>0.007191</v>
+      </c>
+      <c r="R33">
+        <v>2.139592</v>
       </c>
     </row>
   </sheetData>

--- a/측정 결과.xlsx
+++ b/측정 결과.xlsx
@@ -565,40 +565,52 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>5.122465634617868E-06</v>
+        <v>5.130410289113773E-06</v>
       </c>
       <c r="D4">
-        <v>0.1177091739177376</v>
+        <v>0.1175583605066921</v>
       </c>
       <c r="E4">
-        <v>0.0701836921832566</v>
+        <v>0.07107384459457808</v>
       </c>
       <c r="F4">
-        <v>1.75186752198291E-05</v>
+        <v>3.805863360330231E-05</v>
       </c>
       <c r="G4">
-        <v>-303816.6210931752</v>
+        <v>-303815.5264494753</v>
       </c>
       <c r="H4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>62.48970503835468</v>
       </c>
       <c r="L4">
-        <v>6.364154186722841E-06</v>
+        <v>6.364187833137092E-06</v>
       </c>
       <c r="M4">
-        <v>0.1140584025112781</v>
+        <v>0.1140583650643804</v>
       </c>
       <c r="N4">
-        <v>5.674168227966994E-05</v>
+        <v>5.674165636096474E-05</v>
       </c>
       <c r="O4">
-        <v>-303871.9940139274</v>
+        <v>-303871.9938835689</v>
+      </c>
+      <c r="P4">
+        <v>0.004804</v>
+      </c>
+      <c r="Q4">
+        <v>0.003368</v>
+      </c>
+      <c r="R4">
+        <v>4.038446</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -609,29 +621,32 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>5.104194441999999E-06</v>
+        <v>5.243345222077803E-06</v>
       </c>
       <c r="D5">
-        <v>0.118086883032977</v>
+        <v>0.1176527282710385</v>
       </c>
       <c r="E5">
-        <v>0.09255620684794701</v>
+        <v>0.07909346136758016</v>
       </c>
       <c r="F5">
-        <v>1.5965163748E-05</v>
+        <v>3.999965335022004E-05</v>
       </c>
       <c r="G5">
-        <v>-302708.2352948928</v>
+        <v>-302712.3677385068</v>
       </c>
       <c r="H5">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I5">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J5">
         <v>13</v>
       </c>
+      <c r="K5">
+        <v>62.01664998576639</v>
+      </c>
       <c r="L5">
         <v>8.796912761777006E-06</v>
       </c>
@@ -643,6 +658,15 @@
       </c>
       <c r="O5">
         <v>-302813.380448699</v>
+      </c>
+      <c r="P5">
+        <v>0.008142</v>
+      </c>
+      <c r="Q5">
+        <v>0.004394</v>
+      </c>
+      <c r="R5">
+        <v>3.340072</v>
       </c>
     </row>
     <row r="6" spans="1:18">

--- a/측정 결과.xlsx
+++ b/측정 결과.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
   <si>
     <t>year</t>
   </si>
@@ -431,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -677,31 +677,31 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>5.401115403674611E-06</v>
+        <v>5.103381703882974E-06</v>
       </c>
       <c r="D6">
-        <v>0.1178129321773698</v>
+        <v>0.1185669095298494</v>
       </c>
       <c r="E6">
-        <v>0.09818030487013887</v>
+        <v>0.1006166521450286</v>
       </c>
       <c r="F6">
-        <v>2.894685398368776E-05</v>
+        <v>6.497560393688151E-05</v>
       </c>
       <c r="G6">
-        <v>-301126.2296973713</v>
+        <v>-301122.0899122688</v>
       </c>
       <c r="H6">
         <v>91</v>
       </c>
       <c r="I6">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="J6">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K6">
-        <v>59.39517730810756</v>
+        <v>62.83993854325822</v>
       </c>
       <c r="L6">
         <v>1.00413845804954E-05</v>
@@ -714,6 +714,15 @@
       </c>
       <c r="O6">
         <v>-301229.190325206</v>
+      </c>
+      <c r="P6">
+        <v>0.003621</v>
+      </c>
+      <c r="Q6">
+        <v>0.002286</v>
+      </c>
+      <c r="R6">
+        <v>2.32109</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1097,31 +1106,31 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>9.741873263971376E-06</v>
+        <v>9.555828297658719E-06</v>
       </c>
       <c r="D15">
-        <v>0.1143724615882984</v>
+        <v>0.1147661810704872</v>
       </c>
       <c r="E15">
-        <v>0.1232205639032056</v>
+        <v>0.1319269652507289</v>
       </c>
       <c r="F15">
-        <v>0.002083261215753949</v>
+        <v>0.001939108832027612</v>
       </c>
       <c r="G15">
-        <v>-282219.0460544718</v>
+        <v>-282219.2132794793</v>
       </c>
       <c r="H15">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J15">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K15">
-        <v>73.80873170378307</v>
+        <v>73.12650239991463</v>
       </c>
       <c r="L15">
         <v>3.257595273050469E-05</v>
@@ -1134,6 +1143,15 @@
       </c>
       <c r="O15">
         <v>-282276.0549799732</v>
+      </c>
+      <c r="P15">
+        <v>0.003682</v>
+      </c>
+      <c r="Q15">
+        <v>0.001602</v>
+      </c>
+      <c r="R15">
+        <v>0.910856</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1285,31 +1303,31 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>1.536197612093666E-05</v>
+        <v>1.521078552104503E-05</v>
       </c>
       <c r="D19">
-        <v>0.1105405060069439</v>
+        <v>0.1106050881583452</v>
       </c>
       <c r="E19">
-        <v>0.1222607779796246</v>
+        <v>0.119465137107905</v>
       </c>
       <c r="F19">
-        <v>0.002053496634571141</v>
+        <v>0.002323587121782256</v>
       </c>
       <c r="G19">
-        <v>-265883.1109814458</v>
+        <v>-265882.8052294204</v>
       </c>
       <c r="H19">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J19">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K19">
-        <v>72.06491386007087</v>
+        <v>72.79260466843819</v>
       </c>
       <c r="L19">
         <v>4.92950381214641E-05</v>
@@ -1322,6 +1340,15 @@
       </c>
       <c r="O19">
         <v>-265931.2927157023</v>
+      </c>
+      <c r="P19">
+        <v>0.00245</v>
+      </c>
+      <c r="Q19">
+        <v>0.00122</v>
+      </c>
+      <c r="R19">
+        <v>0.699028</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1355,6 +1382,18 @@
       <c r="J20">
         <v>5</v>
       </c>
+      <c r="L20">
+        <v>5.423314535281245E-06</v>
+      </c>
+      <c r="M20">
+        <v>0.1165242834533331</v>
+      </c>
+      <c r="N20">
+        <v>5.513366287393578E-05</v>
+      </c>
+      <c r="O20">
+        <v>-311774.0832564647</v>
+      </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21">
@@ -1364,31 +1403,31 @@
         <v>18</v>
       </c>
       <c r="C21">
-        <v>2.517674012013246E-05</v>
+        <v>2.573433641907616E-05</v>
       </c>
       <c r="D21">
-        <v>0.1046345809559471</v>
+        <v>0.1044579224200091</v>
       </c>
       <c r="E21">
-        <v>0.1049280938976282</v>
+        <v>0.106533074207864</v>
       </c>
       <c r="F21">
-        <v>0.0008075075782578954</v>
+        <v>0.000600749277805953</v>
       </c>
       <c r="G21">
-        <v>-262512.1726523354</v>
+        <v>-262511.9671946592</v>
       </c>
       <c r="H21">
         <v>91</v>
       </c>
       <c r="I21">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="J21">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K21">
-        <v>67.30936593922004</v>
+        <v>65.69621114622515</v>
       </c>
       <c r="L21">
         <v>6.220060058577264E-05</v>
@@ -1401,6 +1440,15 @@
       </c>
       <c r="O21">
         <v>-262559.2480401649</v>
+      </c>
+      <c r="P21">
+        <v>0.001946</v>
+      </c>
+      <c r="Q21">
+        <v>0.001029</v>
+      </c>
+      <c r="R21">
+        <v>0.658915</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1929,6 +1977,26 @@
       </c>
       <c r="R33">
         <v>2.139592</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34">
+        <v>2015</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34">
+        <v>7.065624512798567E-07</v>
+      </c>
+      <c r="M34">
+        <v>0.1348152092179356</v>
+      </c>
+      <c r="N34">
+        <v>6.740766761407058E-05</v>
+      </c>
+      <c r="O34">
+        <v>-320795.5860389484</v>
       </c>
     </row>
   </sheetData>
